--- a/templates/NHWA_Module_8_10.xlsx
+++ b/templates/NHWA_Module_8_10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20351"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8F78F1-C2EE-4169-B4C5-BB06FA3E12CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62B622A-C58C-4AF3-A049-ED6A492CF972}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="zzB/EG68cBLCavBKifLXLU9cHtkByNHDxKw6TGAOmH0Xqt9eEqslmxhiS3RNT5/yg3W/p9o2mkoBv+FWclA2/Q==" workbookSaltValue="AdDK0FT/Ht0UdvlaiqFRnA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2656,6 +2656,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2665,16 +2675,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4137,16 +4137,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -4177,16 +4177,16 @@
       </c>
     </row>
     <row r="2" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>761</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4365,29 +4365,29 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="37" t="s">
         <v>759</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="37" t="s">
         <v>762</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="37" t="s">
         <v>782</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="14"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
       <c r="V6" s="4" t="s">
         <v>787</v>
       </c>
@@ -4417,13 +4417,13 @@
       </c>
     </row>
     <row r="7" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="14"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
@@ -4469,10 +4469,10 @@
         <v>783</v>
       </c>
       <c r="D8" s="34"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="14"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -4512,10 +4512,10 @@
         <v>784</v>
       </c>
       <c r="D9" s="34"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="14"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -4555,10 +4555,10 @@
         <v>785</v>
       </c>
       <c r="D10" s="35"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="14"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -4604,10 +4604,10 @@
         <v>765</v>
       </c>
       <c r="D11" s="35"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="14"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -4651,10 +4651,10 @@
         <v>786</v>
       </c>
       <c r="D12" s="35"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="14"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -4705,10 +4705,10 @@
         <v>763</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -4762,10 +4762,10 @@
         <v>764</v>
       </c>
       <c r="D14" s="22"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="14"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -4809,10 +4809,10 @@
         <v>765</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="14"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -11031,19 +11031,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ayvvL4B0rTmiFtoL19BmlgzP+5zKbPPR9GO1TrkLAaTIwNt3IeEuZgbylSBRZXxwEKB3feYmUw1a6fmT88kPKQ==" saltValue="DJoPVZM/QTKyvsO1jcr2Qg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YA4PVbikWZ2/m0THKQhwV3mqAEgRR8xmtWfDcLhl4xKzO+0hA8Hpaek/5/A3MsTKQ/LsxRdQRh2NfAV8cYg0lw==" saltValue="u3mFMoVoOnf9WzPwuSf3Fg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="I4 Q8:R16 F8:P10 F14:P14 G11:P13 H15:P15 D17:G17 D21:G21 F13" name="Range1"/>
     <protectedRange sqref="D10:E13" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="15">
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="E6:H7"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E13:H13"/>
@@ -11052,6 +11045,13 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="E6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11182,32 +11182,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>767</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -11272,33 +11272,33 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="37" t="s">
         <v>759</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="37" t="s">
         <v>766</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="37" t="s">
         <v>782</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="N8" s="9"/>
       <c r="Q8" s="4" t="s">
         <v>757</v>
@@ -11476,17 +11476,17 @@
     <protectedRange sqref="D9:D11 D14" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11640,32 +11640,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>773</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -11730,31 +11730,31 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="37" t="s">
         <v>759</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="37" t="s">
         <v>766</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="37" t="s">
         <v>782</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="N8" s="9"/>
       <c r="Q8" s="4" t="s">
         <v>788</v>
@@ -12011,12 +12011,6 @@
     <protectedRange sqref="D9:D11 D14" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="14">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:H8"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
@@ -12025,6 +12019,12 @@
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/NHWA_Module_8_10.xlsx
+++ b/templates/NHWA_Module_8_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62B622A-C58C-4AF3-A049-ED6A492CF972}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5257ED43-E7E9-4456-8514-C89BA61823F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="zzB/EG68cBLCavBKifLXLU9cHtkByNHDxKw6TGAOmH0Xqt9eEqslmxhiS3RNT5/yg3W/p9o2mkoBv+FWclA2/Q==" workbookSaltValue="AdDK0FT/Ht0UdvlaiqFRnA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="795">
   <si>
     <t xml:space="preserve">NATIONAL  HEALTH WORKFORCE ACCOUNTS DATA </t>
   </si>
@@ -2314,81 +2314,15 @@
     <t>Health Workforce Skill Mix Composition</t>
   </si>
   <si>
-    <t>Existance/value</t>
-  </si>
-  <si>
-    <t>Existence of advanced nursing roles</t>
-  </si>
-  <si>
-    <t>Percentage of HWF at the primary health care level/facilities</t>
-  </si>
-  <si>
-    <t>Number of specialist surgical workers</t>
-  </si>
-  <si>
-    <t>Existance</t>
-  </si>
-  <si>
     <t>Health Workforce Governance and Policies</t>
   </si>
   <si>
-    <t>Existence of institutional mechanisms to coordinate an intersectoral health workforce agenda</t>
-  </si>
-  <si>
-    <t>Existence of a health workforce unit responsible for developing and monitoring policies and plans on health workforce</t>
-  </si>
-  <si>
-    <t>Existence of mechanisms and models for health workforce planning</t>
-  </si>
-  <si>
-    <t>Existence of national education plans for health workers, aligned with the national health plan and the national health workforce strategy/plan</t>
-  </si>
-  <si>
-    <t>Existence of institutional models for assessing and monitoring staffing needs for health service delivery</t>
-  </si>
-  <si>
     <t>Health Workforce Information Systems</t>
   </si>
   <si>
-    <t>Existence of HRHIS for reporting on International Health Regulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existence of HRHIS for reporting on  the WHO Global Code of Practice on the International Recruitment of Health Personnel </t>
-  </si>
-  <si>
-    <t>Existence of HRHIS for reporting on Skilled Attendance at Birth requirements</t>
-  </si>
-  <si>
-    <t>Existence of HRHIS for reporting on outputs from education and training institutions</t>
-  </si>
-  <si>
-    <t>Existence of HRHIS to track entrants to the labour market</t>
-  </si>
-  <si>
-    <t>Existence of HRHIS to track the number of active stock per year</t>
-  </si>
-  <si>
-    <t>Existence of HRHIS to track the number of exits per year</t>
-  </si>
-  <si>
-    <t>Existence of HRHIS to produce geo-coded location of health facilities</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Percentage of HWF at the hospitals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of health workforce working in residential long-term care facilities	</t>
-  </si>
-  <si>
-    <t>Percentage of health workforce working in ambulatory health care</t>
-  </si>
-  <si>
-    <t>Number of family medicine practitioners</t>
-  </si>
-  <si>
     <t>PARTIAL</t>
   </si>
   <si>
@@ -2408,6 +2342,75 @@
   </si>
   <si>
     <t>Sustainable</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Percentage of HWF at the hospitals (8-01)</t>
+  </si>
+  <si>
+    <t>Percentage of health workforce working in residential long-term care facilities (8-02)</t>
+  </si>
+  <si>
+    <t>Percentage of health workforce working in ambulatory health care (8-03)</t>
+  </si>
+  <si>
+    <t>Number of specialist surgical workers (8-04)</t>
+  </si>
+  <si>
+    <t>Number of family medicine practitioners (8-05)</t>
+  </si>
+  <si>
+    <t>Existence of advanced nursing roles (8-06)</t>
+  </si>
+  <si>
+    <t>Availability of human resources to implement IHR (8-07)</t>
+  </si>
+  <si>
+    <t>Applied epidemiology training programme (8-08)</t>
+  </si>
+  <si>
+    <t>Existence of institutional mechanisms to coordinate an intersectoral health workforce agenda (9-01)</t>
+  </si>
+  <si>
+    <t>Existence</t>
+  </si>
+  <si>
+    <t>Existence of a health workforce unit responsible for developing and monitoring policies and plans on health workforce  (9-02)</t>
+  </si>
+  <si>
+    <t>Existence of mechanisms and models for health workforce planning  (9-03)</t>
+  </si>
+  <si>
+    <t>Existence of national education plans for health workers, aligned with the national health plan and the national health workforce strategy/plan  (9-04)</t>
+  </si>
+  <si>
+    <t>Existence of institutional models for assessing and monitoring staffing needs for health service delivery  (9-05)</t>
+  </si>
+  <si>
+    <t>Existence of HRHIS for reporting on International Health Regulations (10-01)</t>
+  </si>
+  <si>
+    <t>Existence of HRHIS for reporting on  the WHO Global Code of Practice on the International Recruitment of Health Personnel (10-02)</t>
+  </si>
+  <si>
+    <t>Existence of HRHIS for reporting on Skilled Attendance at Birth requirements (10-03)</t>
+  </si>
+  <si>
+    <t>Existence of HRHIS for reporting on outputs from education and training institutions (10-04)</t>
+  </si>
+  <si>
+    <t>Existence of HRHIS to track entrants to the labour market (10-05)</t>
+  </si>
+  <si>
+    <t>Existence of HRHIS to track the number of active stock per year (10-06)</t>
+  </si>
+  <si>
+    <t>Existence of HRHIS to track the number of exits per year (10-07)</t>
+  </si>
+  <si>
+    <t>Existence of HRHIS to produce geo-coded location of health facilities (10-08)</t>
   </si>
 </sst>
 </file>
@@ -2514,7 +2517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2535,6 +2538,28 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2561,7 +2586,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2666,19 +2691,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2849,13 +2889,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2907,13 +2947,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2965,13 +3005,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3026,8 +3066,8 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>4448175</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3084,16 +3124,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>4448175</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1323975</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>438150</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3142,16 +3182,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>4448175</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>438150</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3200,8 +3240,8 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>4448175</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3258,8 +3298,8 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>4448175</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4371,15 +4411,13 @@
       <c r="C6" s="37" t="s">
         <v>759</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>762</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>782</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="D6" s="39" t="s">
+        <v>772</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="14"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -4389,7 +4427,7 @@
       <c r="S6" s="36"/>
       <c r="T6" s="36"/>
       <c r="V6" s="4" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>10</v>
@@ -4419,11 +4457,11 @@
     <row r="7" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="14"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
@@ -4466,13 +4504,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>783</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+        <v>773</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="14"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -4509,13 +4547,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>784</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+        <v>774</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="14"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -4552,13 +4590,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>785</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+        <v>775</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="14"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -4601,13 +4639,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>765</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+        <v>776</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="14"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -4648,13 +4686,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>786</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+        <v>777</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="14"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -4667,7 +4705,7 @@
         <v>757</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="W12" s="9" t="s">
         <v>758</v>
@@ -4697,18 +4735,7 @@
         <v>Comoros</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
-        <v>6</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>763</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+    <row r="13" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I13" s="14"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -4754,18 +4781,22 @@
         <v>Congo</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
-        <v>7</v>
-      </c>
-      <c r="C14" s="23" t="s">
+    <row r="14" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>759</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>782</v>
+      </c>
+      <c r="E14" s="37" t="s">
         <v>764</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="14"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -4801,18 +4832,14 @@
         <v>Cote d'Ivoire</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
-        <v>8</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>765</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+    <row r="15" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="14"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -4850,8 +4877,18 @@
         <v>Democratic Republic of the Congo</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="14"/>
+    <row r="16" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
+        <v>6</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="14"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -4861,7 +4898,7 @@
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="V16" s="4" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="Y16" s="4" t="s">
         <v>16</v>
@@ -4888,11 +4925,21 @@
         <v>Equatorial Guinea</v>
       </c>
     </row>
-    <row r="17" spans="8:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="14"/>
+    <row r="17" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <v>7</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="14"/>
       <c r="V17" s="4" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="Y17" s="4" t="s">
         <v>17</v>
@@ -4919,11 +4966,21 @@
         <v>Eritrea</v>
       </c>
     </row>
-    <row r="18" spans="8:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="14"/>
+    <row r="18" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
+        <v>8</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="14"/>
       <c r="V18" s="4" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="Y18" s="4" t="s">
         <v>18</v>
@@ -4950,9 +5007,9 @@
         <v>Ethiopia</v>
       </c>
     </row>
-    <row r="19" spans="8:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V19" s="4" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="Y19" s="4" t="s">
         <v>19</v>
@@ -4979,9 +5036,9 @@
         <v>Gabon</v>
       </c>
     </row>
-    <row r="20" spans="8:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V20" s="4" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="Y20" s="4" t="s">
         <v>20</v>
@@ -5008,7 +5065,7 @@
         <v>Gambia</v>
       </c>
     </row>
-    <row r="21" spans="8:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y21" s="4" t="s">
         <v>21</v>
       </c>
@@ -5034,7 +5091,7 @@
         <v>Ghana</v>
       </c>
     </row>
-    <row r="22" spans="8:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V22" s="9">
         <v>1</v>
       </c>
@@ -5066,7 +5123,7 @@
         <v>Guinea</v>
       </c>
     </row>
-    <row r="23" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="V23" s="4" t="str">
         <f ca="1">INDIRECT(ADDRESS(ROW(V15)+V22-1,COLUMN(V15)))</f>
         <v/>
@@ -5100,7 +5157,7 @@
         <v>Guinea-Bissau</v>
       </c>
     </row>
-    <row r="24" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="Y24" s="4" t="s">
         <v>24</v>
       </c>
@@ -5126,7 +5183,7 @@
         <v>Kenya</v>
       </c>
     </row>
-    <row r="25" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="Y25" s="4" t="s">
         <v>25</v>
       </c>
@@ -5152,7 +5209,7 @@
         <v>Lesotho</v>
       </c>
     </row>
-    <row r="26" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="Y26" s="4" t="s">
         <v>26</v>
       </c>
@@ -5178,7 +5235,7 @@
         <v>Liberia</v>
       </c>
     </row>
-    <row r="27" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="Y27" s="4" t="s">
         <v>27</v>
       </c>
@@ -5204,7 +5261,7 @@
         <v>Madagascar</v>
       </c>
     </row>
-    <row r="28" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="Y28" s="4" t="s">
         <v>28</v>
       </c>
@@ -5230,7 +5287,7 @@
         <v>Malawi</v>
       </c>
     </row>
-    <row r="29" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="Y29" s="4" t="s">
         <v>29</v>
       </c>
@@ -5256,7 +5313,7 @@
         <v>Mali</v>
       </c>
     </row>
-    <row r="30" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="Y30" s="4" t="s">
         <v>30</v>
       </c>
@@ -5282,7 +5339,7 @@
         <v>Mauritania</v>
       </c>
     </row>
-    <row r="31" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="Y31" s="4" t="s">
         <v>31</v>
       </c>
@@ -5308,7 +5365,7 @@
         <v>Mauritius</v>
       </c>
     </row>
-    <row r="32" spans="8:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="Y32" s="4" t="s">
         <v>32</v>
       </c>
@@ -11031,28 +11088,35 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YA4PVbikWZ2/m0THKQhwV3mqAEgRR8xmtWfDcLhl4xKzO+0hA8Hpaek/5/A3MsTKQ/LsxRdQRh2NfAV8cYg0lw==" saltValue="u3mFMoVoOnf9WzPwuSf3Fg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aRYL8oLz3VA7/6G9+XWnS78DtBBtu1slvlNcwF2Loxvtf6MAFIuNjE43Ggv5gRrrRAVozFkyHYAEEeXGw+iVeA==" saltValue="naW9bcU/Qal8Lm6d5F7BcA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
-    <protectedRange sqref="I4 Q8:R16 F8:P10 F14:P14 G11:P13 H15:P15 D17:G17 D21:G21 F13" name="Range1"/>
-    <protectedRange sqref="D10:E13" name="Range1_1"/>
+    <protectedRange sqref="I4 Q8:R16 F8:P10 H18 I11:P15 F16:H17 G11:H12" name="Range1"/>
+    <protectedRange sqref="D16:E16 D10:E12" name="Range1_1"/>
   </protectedRanges>
-  <mergeCells count="15">
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
+  <mergeCells count="13">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:H15"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E16:H16"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D12" xr:uid="{B0825347-8C23-44F3-A103-0FD47988A44A}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{A2A9C322-F9D1-4553-AE81-2F9548F457FE}">
+      <formula1>YEAR(TODAY())-20</formula1>
+      <formula2>YEAR(TODAY())-1</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11091,13 +11155,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -11113,13 +11177,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -11135,13 +11199,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -11166,12 +11230,9 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="66.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="18.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="4" customWidth="1"/>
+    <col min="5" max="9" width="15.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" style="4" hidden="1" customWidth="1"/>
@@ -11199,7 +11260,7 @@
     </row>
     <row r="2" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -11262,7 +11323,7 @@
       <c r="B5" s="5"/>
       <c r="L5" s="5"/>
       <c r="N5" s="9" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -11279,10 +11340,10 @@
         <v>759</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -11304,7 +11365,7 @@
         <v>757</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>758</v>
@@ -11315,14 +11376,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
       <c r="N9" s="9">
         <v>1</v>
       </c>
@@ -11345,14 +11406,14 @@
         <v>2</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
       <c r="N10" s="9">
         <v>1</v>
       </c>
@@ -11375,14 +11436,14 @@
         <v>3</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="N11" s="9">
         <v>1</v>
       </c>
@@ -11405,14 +11466,14 @@
         <v>4</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="D12" s="22"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="N12" s="9">
         <v>1</v>
       </c>
@@ -11435,14 +11496,14 @@
         <v>5</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
       <c r="N13" s="9">
         <v>1</v>
       </c>
@@ -11470,23 +11531,23 @@
       <c r="O19" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OEvvRjWpKbFC0jARZBSL+ULn5yEhPQzieqzguPUHK0SM5DBJVo007Oj/Yo6NQcHhcZpMEDsduY26Nam8tHTTFQ==" saltValue="zQBbEZUen1o0bsK22UMd/w==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ypD2EO4AiVR7tcIZF1YbbWcmz8sir/ev9Ns0SJtXNh9NosdtjHBeN/HGCpJR58FIVv7J0hcj3NITFq2TMQZdww==" saltValue="XrrjQ4xfEj++kgjl/drrYQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D19" name="Range1_1_1"/>
     <protectedRange sqref="D9:D11 D14" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11501,8 +11562,8 @@
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>4448175</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -11523,16 +11584,16 @@
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>4448175</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1323975</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>438150</xdr:rowOff>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11545,16 +11606,16 @@
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>4448175</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>438150</xdr:rowOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11567,8 +11628,8 @@
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>4448175</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -11589,8 +11650,8 @@
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>4448175</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -11624,7 +11685,7 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="69.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="85" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="4" customWidth="1"/>
     <col min="5" max="6" width="18.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="17" style="4" customWidth="1"/>
@@ -11657,7 +11718,7 @@
     </row>
     <row r="2" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -11720,7 +11781,7 @@
       <c r="B5" s="5"/>
       <c r="L5" s="5"/>
       <c r="N5" s="4" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -11737,10 +11798,10 @@
         <v>759</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -11757,10 +11818,10 @@
       <c r="H8" s="37"/>
       <c r="N8" s="9"/>
       <c r="Q8" s="4" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>758</v>
@@ -11771,13 +11832,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="N9" s="9">
         <v>1</v>
       </c>
@@ -11800,13 +11861,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
       <c r="N10" s="9">
         <v>1</v>
       </c>
@@ -11829,13 +11890,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
       <c r="N11" s="9">
         <v>1</v>
       </c>
@@ -11858,13 +11919,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="D12" s="22"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
       <c r="N12" s="9">
         <v>1</v>
       </c>
@@ -11887,13 +11948,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
       <c r="N13" s="9">
         <v>1</v>
       </c>
@@ -11916,13 +11977,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="D14" s="22"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
       <c r="N14" s="9">
         <v>1</v>
       </c>
@@ -11945,13 +12006,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
       <c r="N15" s="9">
         <v>1</v>
       </c>
@@ -11974,13 +12035,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="D16" s="22"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
       <c r="N16" s="9">
         <v>1</v>
       </c>
@@ -12005,12 +12066,18 @@
       <c r="O19" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4jlbzBTBzfV/PGKd4+uDBhzxO8c304g31gGC+i3BAx42RaCkxLblIsQ5CIjYIQEbG7pnla43aANpvRhuFJFq5A==" saltValue="dYBEHRLVvM7kflNkXEfa8A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nuF2cJIYAZHYnJKPcem6zFf9aM4V6zcft1M9hjNTZGFsws+GEauEGcqQcYSoldatXhThttFglOblYr/Ug93p4g==" saltValue="GJRKustckYqUv5X8vBv3ww==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D19" name="Range1_1_1"/>
     <protectedRange sqref="D9:D11 D14" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="14">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:H8"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
@@ -12019,12 +12086,6 @@
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
